--- a/gdp_growth.xlsx
+++ b/gdp_growth.xlsx
@@ -11,6 +11,254 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao SAR, China</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>St. Martin (French part)</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,379 +614,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0.904256855556086</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>0.9108562822033052</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2.01256349569444</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>2.042083347650771</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1.048944330820173</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>-0.697201353244974</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>1.569444883548315</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>-1.944877558440152</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>1.282091575176382</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>0.23387626431553</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>0.3858072265086387</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>1.334295037883082</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>1.786607386266605</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>2.26021730402207</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>2.947561822470676</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>-3.7249968566283</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>4.291799312219737</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>1.999538506476733</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>2.068636269538928</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>3.988996447742332</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>1.522737385899645</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>1.021154154664943</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>0.2888282956649433</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>0.9797110079185831</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>0.5980213510572611</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>1.597118064804251</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>-1.243157116545748</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>1.156388791865867</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>3.210525670052959</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>2.560606505322337</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>7.458876735329642</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>3.527346993674417</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>3.963239534456168</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>0.3446091236663207</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>-0.01282628350911338</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>2.448967947334511</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>-1.751898985127233</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>2.351289600002153</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>3.563184638348466</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>2.356607512766581</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>-3.618644855290981</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>4.727708996785105</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>3.566825254830422</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>1.095214732935512</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>1.732709162346543</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>2.559794724587988</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>5.473813537166375</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>1.403871541901223</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>0.8702394421130032</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>2.43342376157031</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>3.88606090007619</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>1.373298700369093</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>-1.830082357811387</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>0.2544291534902332</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>3.726475473369945</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>-0.09712980508452844</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
         <v>0.4800569644101156</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>2.722021635343913</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <v>2.741827932410388</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <v>-3.966666351390456</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>1.845287247542928</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>3.30039513814979</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
         <v>0.7460211940865683</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>-0.8957032415527714</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <v>1.913267990311825</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
         <v>1.54667844012451</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
         <v>-3.489480535364821</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
         <v>-1.497734972659746</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>1.279677522054199</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <v>0.7353597115139454</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
         <v>2.054483241786034</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
         <v>0.3985732518270509</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <v>0.6802185067351785</v>
       </c>
     </row>
